--- a/app/config/tables/pediatria/forms/discharge/discharge.xlsx
+++ b/app/config/tables/pediatria/forms/discharge/discharge.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5030A668-4B56-4766-8179-1D329B6F471C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84AC86A-601C-4DA3-9CED-1F31BCAEE2DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10766,7 +10766,7 @@
         <v>88</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C70" s="13" t="b">
         <v>1</v>
@@ -10788,7 +10788,7 @@
         <v>89</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C72" s="13" t="b">
         <v>1</v>
@@ -10810,7 +10810,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C74" s="13" t="b">
         <v>1</v>

--- a/app/config/tables/pediatria/forms/discharge/discharge.xlsx
+++ b/app/config/tables/pediatria/forms/discharge/discharge.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84AC86A-601C-4DA3-9CED-1F31BCAEE2DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EEB4CE-355B-4B33-9B05-5EECB8ABAA35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="588">
   <si>
     <t>setting_name</t>
   </si>
@@ -1651,9 +1651,6 @@
     <t>prodiag3n</t>
   </si>
   <si>
-    <t>Observacao</t>
-  </si>
-  <si>
     <t>Observation</t>
   </si>
   <si>
@@ -1730,6 +1727,75 @@
   </si>
   <si>
     <t>pediatria</t>
+  </si>
+  <si>
+    <t>NTN - Não tem cartão e não tem vacinas</t>
+  </si>
+  <si>
+    <t>NTS - Não tem cartão, mas tem vacinas</t>
+  </si>
+  <si>
+    <t>Data desconhecida</t>
+  </si>
+  <si>
+    <t>Status desconhecido</t>
+  </si>
+  <si>
+    <t>Não sabe o número</t>
+  </si>
+  <si>
+    <t>Apenas consulta</t>
+  </si>
+  <si>
+    <t>Admitido para observação</t>
+  </si>
+  <si>
+    <t>Incrustado</t>
+  </si>
+  <si>
+    <t>Nenhum diagnóstico</t>
+  </si>
+  <si>
+    <t>Ainda admitido</t>
+  </si>
+  <si>
+    <t>Viveu descarregado</t>
+  </si>
+  <si>
+    <t>Morreu durante a admissão</t>
+  </si>
+  <si>
+    <t>Deixou</t>
+  </si>
+  <si>
+    <t>Cama desconhecida</t>
+  </si>
+  <si>
+    <t>Positivo</t>
+  </si>
+  <si>
+    <t>Negativo</t>
+  </si>
+  <si>
+    <t>Não realizado</t>
+  </si>
+  <si>
+    <t>Tempo desconhecido</t>
+  </si>
+  <si>
+    <t>Status da criança</t>
+  </si>
+  <si>
+    <t>Por que a data é desconhecida?</t>
+  </si>
+  <si>
+    <t>Teste de malária</t>
+  </si>
+  <si>
+    <t>Teste de diagnóstico rápido para malária</t>
+  </si>
+  <si>
+    <t>Observação</t>
   </si>
 </sst>
 </file>
@@ -1780,7 +1846,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1849,12 +1915,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1906,7 +1966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1933,17 +1993,16 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{B24E2DBD-C98B-43BE-8700-82C21F1CBFF5}"/>
@@ -2378,7 +2437,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2434,9 +2493,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
   <dimension ref="A1:Q755"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2531,6 +2590,9 @@
       <c r="G3" t="s">
         <v>432</v>
       </c>
+      <c r="H3" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -2604,6 +2666,9 @@
       <c r="G11" t="s">
         <v>440</v>
       </c>
+      <c r="H11" t="s">
+        <v>584</v>
+      </c>
       <c r="P11" t="s">
         <v>431</v>
       </c>
@@ -2746,6 +2811,9 @@
       </c>
       <c r="G27" t="s">
         <v>510</v>
+      </c>
+      <c r="H27" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2946,6 +3014,9 @@
       <c r="G49" t="s">
         <v>458</v>
       </c>
+      <c r="H49" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="50" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
@@ -3118,13 +3189,13 @@
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G67" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H67" t="s">
-        <v>539</v>
+        <v>587</v>
       </c>
       <c r="P67" t="s">
         <v>431</v>
@@ -3232,7 +3303,7 @@
       <c r="F78" t="s">
         <v>414</v>
       </c>
-      <c r="L78" s="25" t="s">
+      <c r="L78" s="24" t="s">
         <v>536</v>
       </c>
     </row>
@@ -3240,7 +3311,7 @@
       <c r="B79" t="s">
         <v>441</v>
       </c>
-      <c r="L79" s="25"/>
+      <c r="L79" s="24"/>
     </row>
     <row r="80" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
@@ -3249,7 +3320,7 @@
       <c r="F80" t="s">
         <v>414</v>
       </c>
-      <c r="L80" s="25" t="s">
+      <c r="L80" s="24" t="s">
         <v>535</v>
       </c>
     </row>
@@ -6437,7 +6508,7 @@
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -6658,7 +6729,9 @@
       <c r="C15" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -6670,7 +6743,9 @@
       <c r="C16" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -7203,7 +7278,9 @@
       <c r="C53" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
@@ -7215,7 +7292,9 @@
       <c r="C54" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
@@ -7255,7 +7334,9 @@
       <c r="C57" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
@@ -7337,7 +7418,9 @@
       <c r="C63" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
@@ -7349,7 +7432,9 @@
       <c r="C64" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D64" s="5"/>
+      <c r="D64" s="5" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
@@ -7377,7 +7462,9 @@
       <c r="C66" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -7669,7 +7756,9 @@
       <c r="C87" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D87" s="7"/>
+      <c r="D87" s="7" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
@@ -7681,7 +7770,9 @@
       <c r="C88" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="7"/>
+      <c r="D88" s="7" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
@@ -7721,7 +7812,9 @@
       <c r="C91" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D91" s="5"/>
+      <c r="D91" s="5" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
@@ -7733,7 +7826,9 @@
       <c r="C92" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D92" s="5"/>
+      <c r="D92" s="5" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
@@ -7773,7 +7868,9 @@
       <c r="C95" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D95" s="7"/>
+      <c r="D95" s="7" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
@@ -7785,7 +7882,9 @@
       <c r="C96" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D96" s="7"/>
+      <c r="D96" s="7" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
@@ -7825,7 +7924,9 @@
       <c r="C99" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D99" s="5"/>
+      <c r="D99" s="5" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
@@ -7837,7 +7938,9 @@
       <c r="C100" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D100" s="5"/>
+      <c r="D100" s="5" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
@@ -7877,7 +7980,9 @@
       <c r="C103" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D103" s="7"/>
+      <c r="D103" s="7" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
@@ -7889,7 +7994,9 @@
       <c r="C104" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D104" s="7"/>
+      <c r="D104" s="7" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
@@ -8921,7 +9028,9 @@
       <c r="C168" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D168" s="7"/>
+      <c r="D168" s="7" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
@@ -8933,20 +9042,22 @@
       <c r="C169" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="D169" s="7"/>
+      <c r="D169" s="7" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="22" t="s">
+      <c r="A170" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B170" s="22" t="str">
+      <c r="B170" s="5" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
-      <c r="C170" s="22" t="s">
+      <c r="C170" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D170" s="22" t="s">
+      <c r="D170" s="5" t="s">
         <v>194</v>
       </c>
     </row>
@@ -8961,7 +9072,9 @@
       <c r="C171" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="D171" s="7"/>
+      <c r="D171" s="7" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
@@ -8974,7 +9087,9 @@
       <c r="C172" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="D172" s="7"/>
+      <c r="D172" s="7" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
@@ -8987,7 +9102,9 @@
       <c r="C173" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="D173" s="7"/>
+      <c r="D173" s="7" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
@@ -9000,7 +9117,9 @@
       <c r="C174" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D174" s="5"/>
+      <c r="D174" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
@@ -9013,7 +9132,9 @@
       <c r="C175" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D175" s="5"/>
+      <c r="D175" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
@@ -9026,7 +9147,9 @@
       <c r="C176" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D176" s="5"/>
+      <c r="D176" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
@@ -9039,7 +9162,9 @@
       <c r="C177" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D177" s="5"/>
+      <c r="D177" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
@@ -9052,7 +9177,9 @@
       <c r="C178" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D178" s="5"/>
+      <c r="D178" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
@@ -9065,7 +9192,9 @@
       <c r="C179" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D179" s="5"/>
+      <c r="D179" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
@@ -9078,7 +9207,9 @@
       <c r="C180" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D180" s="5"/>
+      <c r="D180" s="5" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
@@ -9091,7 +9222,9 @@
       <c r="C181" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D181" s="5"/>
+      <c r="D181" s="5" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
@@ -9104,7 +9237,9 @@
       <c r="C182" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D182" s="5"/>
+      <c r="D182" s="5" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
@@ -9117,7 +9252,9 @@
       <c r="C183" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D183" s="5"/>
+      <c r="D183" s="5" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
@@ -9130,7 +9267,9 @@
       <c r="C184" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="D184" s="7"/>
+      <c r="D184" s="7" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
@@ -9143,7 +9282,9 @@
       <c r="C185" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D185" s="5"/>
+      <c r="D185" s="5" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
@@ -9156,7 +9297,9 @@
       <c r="C186" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D186" s="5"/>
+      <c r="D186" s="5" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
@@ -9169,7 +9312,9 @@
       <c r="C187" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D187" s="5"/>
+      <c r="D187" s="5" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
@@ -9182,7 +9327,9 @@
       <c r="C188" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D188" s="5"/>
+      <c r="D188" s="5" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
@@ -9194,7 +9341,9 @@
       <c r="C189" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="D189" s="7"/>
+      <c r="D189" s="7" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
@@ -9403,7 +9552,9 @@
       <c r="C204" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="D204" s="7"/>
+      <c r="D204" s="7" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
@@ -9416,7 +9567,9 @@
       <c r="C205" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="D205" s="5"/>
+      <c r="D205" s="5" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
@@ -9429,7 +9582,9 @@
       <c r="C206" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D206" s="5"/>
+      <c r="D206" s="5" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
@@ -9442,7 +9597,9 @@
       <c r="C207" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D207" s="5"/>
+      <c r="D207" s="5" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
@@ -9455,7 +9612,9 @@
       <c r="C208" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D208" s="5"/>
+      <c r="D208" s="5" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
@@ -9468,7 +9627,9 @@
       <c r="C209" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="D209" s="7"/>
+      <c r="D209" s="7" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
@@ -9481,7 +9642,9 @@
       <c r="C210" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D210" s="7"/>
+      <c r="D210" s="7" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
@@ -9494,7 +9657,9 @@
       <c r="C211" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="D211" s="7"/>
+      <c r="D211" s="7" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
@@ -9638,7 +9803,7 @@
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="26" t="s">
+      <c r="A222" s="25" t="s">
         <v>428</v>
       </c>
       <c r="B222" s="5" t="s">
@@ -9647,7 +9812,9 @@
       <c r="C222" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="D222" s="5"/>
+      <c r="D222" s="5" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
@@ -9660,7 +9827,9 @@
       <c r="C223" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D223" s="7"/>
+      <c r="D223" s="7" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
@@ -9679,212 +9848,212 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B225" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
-      <c r="C225" s="27" t="s">
-        <v>546</v>
-      </c>
-      <c r="D225" s="27" t="s">
-        <v>546</v>
+      <c r="C225" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="D225" s="26" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B226" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
-      <c r="C226" s="28" t="s">
-        <v>547</v>
-      </c>
-      <c r="D226" s="28" t="s">
-        <v>547</v>
+      <c r="C226" s="27" t="s">
+        <v>546</v>
+      </c>
+      <c r="D226" s="27" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B227" s="5" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
-      <c r="C227" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="D227" s="28" t="s">
-        <v>548</v>
+      <c r="C227" s="27" t="s">
+        <v>547</v>
+      </c>
+      <c r="D227" s="27" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B228" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
-      <c r="C228" s="28" t="s">
-        <v>549</v>
-      </c>
-      <c r="D228" s="28" t="s">
-        <v>549</v>
+      <c r="C228" s="27" t="s">
+        <v>548</v>
+      </c>
+      <c r="D228" s="27" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B229" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
-      <c r="C229" s="28" t="s">
-        <v>550</v>
-      </c>
-      <c r="D229" s="28" t="s">
-        <v>550</v>
+      <c r="C229" s="27" t="s">
+        <v>549</v>
+      </c>
+      <c r="D229" s="27" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B230" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
-      <c r="C230" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="D230" s="28" t="s">
-        <v>551</v>
+      <c r="C230" s="27" t="s">
+        <v>550</v>
+      </c>
+      <c r="D230" s="27" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B231" s="5" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
-      <c r="C231" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="D231" s="28" t="s">
-        <v>552</v>
+      <c r="C231" s="27" t="s">
+        <v>551</v>
+      </c>
+      <c r="D231" s="27" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B232" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
-      <c r="C232" s="28" t="s">
-        <v>553</v>
-      </c>
-      <c r="D232" s="28" t="s">
-        <v>553</v>
+      <c r="C232" s="27" t="s">
+        <v>552</v>
+      </c>
+      <c r="D232" s="27" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B233" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C233" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="D233" s="28" t="s">
-        <v>554</v>
+      <c r="C233" s="27" t="s">
+        <v>553</v>
+      </c>
+      <c r="D233" s="27" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B234" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
-      <c r="C234" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="D234" s="28" t="s">
-        <v>555</v>
+      <c r="C234" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="D234" s="27" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B235" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
-      <c r="C235" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="D235" s="28" t="s">
-        <v>556</v>
+      <c r="C235" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="D235" s="27" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B236" s="5" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
-      <c r="C236" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="D236" s="28" t="s">
-        <v>557</v>
+      <c r="C236" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="D236" s="27" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B237" s="5" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
-      <c r="C237" s="28" t="s">
-        <v>558</v>
-      </c>
-      <c r="D237" s="28" t="s">
-        <v>558</v>
+      <c r="C237" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="D237" s="27" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B238" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
-      <c r="C238" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="D238" s="28" t="s">
-        <v>559</v>
+      <c r="C238" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="D238" s="27" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -9987,7 +10156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+    <sheetView topLeftCell="A137" workbookViewId="0">
       <selection activeCell="A137" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -10026,7 +10195,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>35</v>
@@ -10268,7 +10437,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>35</v>
@@ -10488,7 +10657,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>19</v>
@@ -11466,129 +11635,129 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="29" t="s">
-        <v>560</v>
-      </c>
-      <c r="B134" s="29" t="s">
+      <c r="A134" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="B134" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="29" t="b">
+      <c r="C134" s="28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="30" t="s">
-        <v>563</v>
-      </c>
-      <c r="B135" s="30" t="s">
+      <c r="A135" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="B135" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C135" s="30" t="b">
+      <c r="C135" s="29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="23" t="s">
+      <c r="A136" s="22" t="s">
         <v>500</v>
       </c>
-      <c r="B136" s="23" t="s">
+      <c r="B136" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C136" s="23" t="b">
+      <c r="C136" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="23" t="s">
+      <c r="A137" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="B137" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C137" s="23" t="b">
+      <c r="C137" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="23" t="s">
+      <c r="A138" s="22" t="s">
         <v>503</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="B138" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C138" s="23" t="b">
+      <c r="C138" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="23" t="s">
+      <c r="A139" s="22" t="s">
         <v>501</v>
       </c>
-      <c r="B139" s="23" t="s">
+      <c r="B139" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C139" s="23" t="b">
+      <c r="C139" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="23" t="s">
+      <c r="A140" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="B140" s="23" t="s">
+      <c r="B140" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C140" s="23" t="b">
+      <c r="C140" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="23" t="s">
+      <c r="A141" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="B141" s="23" t="s">
+      <c r="B141" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C141" s="23" t="b">
+      <c r="C141" s="22" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="24" t="s">
+      <c r="A142" s="23" t="s">
         <v>502</v>
       </c>
-      <c r="B142" s="24" t="s">
+      <c r="B142" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C142" s="24" t="b">
+      <c r="C142" s="23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="24" t="s">
-        <v>544</v>
-      </c>
-      <c r="B143" s="24" t="s">
+      <c r="A143" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="B143" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C143" s="24" t="b">
+      <c r="C143" s="23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="24" t="s">
-        <v>543</v>
-      </c>
-      <c r="B144" s="24" t="s">
+      <c r="A144" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="B144" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C144" s="24" t="b">
+      <c r="C144" s="23" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B145" s="21" t="s">
         <v>35</v>
@@ -11621,7 +11790,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B148" s="17" t="s">
         <v>8</v>

--- a/app/config/tables/pediatria/forms/discharge/discharge.xlsx
+++ b/app/config/tables/pediatria/forms/discharge/discharge.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EEB4CE-355B-4B33-9B05-5EECB8ABAA35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6720364C-F79D-4B50-A6A6-1FB471283964}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="582">
   <si>
     <t>setting_name</t>
   </si>
@@ -226,18 +226,6 @@
     <t>FiveYears</t>
   </si>
   <si>
-    <t>1 - Mother</t>
-  </si>
-  <si>
-    <t>2 - Father</t>
-  </si>
-  <si>
-    <t>4 - Grandparents</t>
-  </si>
-  <si>
-    <t>5 - Other</t>
-  </si>
-  <si>
     <t>VI - Card seen</t>
   </si>
   <si>
@@ -247,45 +235,6 @@
     <t>PC - Lost card</t>
   </si>
   <si>
-    <t>1 - Paulo</t>
-  </si>
-  <si>
-    <t>2 - Justino</t>
-  </si>
-  <si>
-    <t>3 - Domingos</t>
-  </si>
-  <si>
-    <t>4 - Lola</t>
-  </si>
-  <si>
-    <t>1 - Scar</t>
-  </si>
-  <si>
-    <t>2 - Ulcer</t>
-  </si>
-  <si>
-    <t>3 - Papule</t>
-  </si>
-  <si>
-    <t>4 - No scar</t>
-  </si>
-  <si>
-    <t>1 - Participated</t>
-  </si>
-  <si>
-    <t>2 - Did not participate</t>
-  </si>
-  <si>
-    <t>3 - Don't know</t>
-  </si>
-  <si>
-    <t>2 - Mother</t>
-  </si>
-  <si>
-    <t>3 - Other</t>
-  </si>
-  <si>
     <t>BA - Balanta</t>
   </si>
   <si>
@@ -442,18 +391,6 @@
     <t>OU - Outra</t>
   </si>
   <si>
-    <t>5 - Outra</t>
-  </si>
-  <si>
-    <t>1 - Mãe</t>
-  </si>
-  <si>
-    <t>2 - Pai</t>
-  </si>
-  <si>
-    <t>3 - Aunt/uncle</t>
-  </si>
-  <si>
     <t>display.constraint_message.text.portuguese</t>
   </si>
   <si>
@@ -481,42 +418,6 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>3 - Outra</t>
-  </si>
-  <si>
-    <t>2 - Mãe</t>
-  </si>
-  <si>
-    <t>1 - Vaccination card</t>
-  </si>
-  <si>
-    <t>1 - Cartão da vacina</t>
-  </si>
-  <si>
-    <t>6 - Criança maior</t>
-  </si>
-  <si>
-    <t>6 - Older child</t>
-  </si>
-  <si>
-    <t>2 - Ulcera (mandita)</t>
-  </si>
-  <si>
-    <t>1 - Cicatriz</t>
-  </si>
-  <si>
-    <t>3 - Cocula (papla fechado)</t>
-  </si>
-  <si>
-    <t>4 - Nada</t>
-  </si>
-  <si>
-    <t>3 - Tia/tio</t>
-  </si>
-  <si>
-    <t>4 - Avo</t>
-  </si>
-  <si>
     <t>MA - Criança maior</t>
   </si>
   <si>
@@ -526,12 +427,6 @@
     <t>CV - Cabo Verdiano</t>
   </si>
   <si>
-    <t>5 - Eduardo</t>
-  </si>
-  <si>
-    <t>6 - Miro</t>
-  </si>
-  <si>
     <t>BCGR</t>
   </si>
   <si>
@@ -649,15 +544,6 @@
     <t>PC - Perdeu o cartão</t>
   </si>
   <si>
-    <t>1 - Participou</t>
-  </si>
-  <si>
-    <t>2 - Não participou</t>
-  </si>
-  <si>
-    <t>3 - Não sabe</t>
-  </si>
-  <si>
     <t>inputAttributes.autocomplete</t>
   </si>
   <si>
@@ -1360,9 +1246,6 @@
     <t>else</t>
   </si>
   <si>
-    <t>data('saidat')</t>
-  </si>
-  <si>
     <t>end if</t>
   </si>
   <si>
@@ -1796,6 +1679,105 @@
   </si>
   <si>
     <t>Observação</t>
+  </si>
+  <si>
+    <t>data('saidai')</t>
+  </si>
+  <si>
+    <t>saidai</t>
+  </si>
+  <si>
+    <t>habcom</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Mãe</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Pai</t>
+  </si>
+  <si>
+    <t>Aunt/uncle</t>
+  </si>
+  <si>
+    <t>Tia/tio</t>
+  </si>
+  <si>
+    <t>Grandparents</t>
+  </si>
+  <si>
+    <t>Avo</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Justino</t>
+  </si>
+  <si>
+    <t>Domingos</t>
+  </si>
+  <si>
+    <t>Lola</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Miro</t>
+  </si>
+  <si>
+    <t>Scar</t>
+  </si>
+  <si>
+    <t>Cicatriz</t>
+  </si>
+  <si>
+    <t>Ulcer</t>
+  </si>
+  <si>
+    <t>Ulcera (mandita)</t>
+  </si>
+  <si>
+    <t>Papule</t>
+  </si>
+  <si>
+    <t>Cocula (papla fechado)</t>
+  </si>
+  <si>
+    <t>No scar</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>Older child</t>
+  </si>
+  <si>
+    <t>Criança maior</t>
+  </si>
+  <si>
+    <t>Participated</t>
+  </si>
+  <si>
+    <t>Participou</t>
+  </si>
+  <si>
+    <t>Did not participate</t>
+  </si>
+  <si>
+    <t>Não participou</t>
+  </si>
+  <si>
+    <t>Vaccination card</t>
+  </si>
+  <si>
+    <t>Cartão da vacina</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +2337,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>401</v>
+        <v>363</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2364,7 +2346,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>525</v>
+        <v>486</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2404,16 +2386,16 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2421,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2437,7 +2419,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>564</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2445,10 +2427,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="D5" t="s">
-        <v>524</v>
+        <v>485</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -2464,24 +2446,24 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2493,9 +2475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3902AA-ED11-47DF-B8BC-39F5B6F88EDF}">
   <dimension ref="A1:Q755"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,7 +2503,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s">
         <v>25</v>
@@ -2542,7 +2524,7 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="I1" t="s">
         <v>42</v>
@@ -2551,22 +2533,22 @@
         <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="L1" t="s">
         <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>403</v>
+        <v>365</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="Q1" t="s">
         <v>24</v>
@@ -2582,16 +2564,16 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="F3" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="G3" t="s">
-        <v>432</v>
+        <v>394</v>
       </c>
       <c r="H3" t="s">
-        <v>583</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2601,10 +2583,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C5" t="s">
-        <v>434</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2617,43 +2599,43 @@
         <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>377</v>
+        <v>550</v>
       </c>
       <c r="G7" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="H7" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="F8" t="s">
-        <v>388</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C9" t="s">
-        <v>437</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F10" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="L10" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2661,37 +2643,37 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="G11" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="H11" t="s">
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="P11" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F13" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="L13" t="s">
-        <v>442</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2706,13 +2688,13 @@
     </row>
     <row r="17" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="G17" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="H17" t="s">
-        <v>446</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2720,16 +2702,16 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="G18" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="H18" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="P18" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2737,43 +2719,43 @@
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="G19" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="H19" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="P19" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="F20" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C21" t="s">
-        <v>451</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F22" t="s">
-        <v>411</v>
+        <v>373</v>
       </c>
       <c r="L22">
         <v>99</v>
@@ -2781,10 +2763,10 @@
     </row>
     <row r="23" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F23" t="s">
-        <v>412</v>
+        <v>374</v>
       </c>
       <c r="L23">
         <v>99</v>
@@ -2792,7 +2774,7 @@
     </row>
     <row r="24" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2807,13 +2789,13 @@
     </row>
     <row r="27" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="G27" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="H27" t="s">
-        <v>585</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2821,10 +2803,10 @@
         <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>519</v>
+        <v>480</v>
       </c>
       <c r="P28" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -2832,62 +2814,62 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
       <c r="P29" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E30" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="F30" t="s">
-        <v>512</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C31" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F32" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="L32" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F35" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="L35" t="s">
-        <v>520</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2902,43 +2884,46 @@
     </row>
     <row r="39" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="F39" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="G39" t="s">
-        <v>452</v>
+        <v>413</v>
       </c>
       <c r="H39" t="s">
-        <v>453</v>
+        <v>414</v>
+      </c>
+      <c r="P39" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E40" t="s">
         <v>61</v>
       </c>
       <c r="F40" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C41" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F42" t="s">
-        <v>410</v>
+        <v>372</v>
       </c>
       <c r="L42">
         <v>999</v>
@@ -2946,7 +2931,7 @@
     </row>
     <row r="43" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -2954,43 +2939,43 @@
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="G44" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="H44" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="P44" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E45" t="s">
         <v>61</v>
       </c>
       <c r="F45" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C46" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
     </row>
     <row r="47" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F47" t="s">
-        <v>413</v>
+        <v>375</v>
       </c>
       <c r="L47">
         <v>99999</v>
@@ -2998,7 +2983,7 @@
     </row>
     <row r="48" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3006,16 +2991,16 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="F49" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="G49" t="s">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="H49" t="s">
-        <v>586</v>
+        <v>547</v>
       </c>
     </row>
     <row r="50" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3033,43 +3018,43 @@
         <v>35</v>
       </c>
       <c r="E52" t="s">
+        <v>319</v>
+      </c>
+      <c r="F52" t="s">
         <v>357</v>
       </c>
-      <c r="F52" t="s">
-        <v>395</v>
-      </c>
       <c r="G52" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="H52" t="s">
-        <v>460</v>
+        <v>421</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E53" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="F53" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C54" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F55" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
       <c r="L55">
         <v>9999</v>
@@ -3077,7 +3062,7 @@
     </row>
     <row r="56" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3085,43 +3070,43 @@
         <v>35</v>
       </c>
       <c r="E57" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="F57" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="G57" t="s">
-        <v>462</v>
+        <v>423</v>
       </c>
       <c r="H57" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E58" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="F58" t="s">
-        <v>398</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C59" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F60" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="L60">
         <v>9999</v>
@@ -3129,7 +3114,7 @@
     </row>
     <row r="61" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3137,43 +3122,43 @@
         <v>35</v>
       </c>
       <c r="E62" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="F62" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="G62" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="H62" t="s">
-        <v>532</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E63" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="F63" t="s">
-        <v>527</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="2:12" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C64" t="s">
-        <v>528</v>
+        <v>489</v>
       </c>
     </row>
     <row r="65" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F65" t="s">
-        <v>526</v>
+        <v>487</v>
       </c>
       <c r="L65">
         <v>9999</v>
@@ -3181,7 +3166,7 @@
     </row>
     <row r="66" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3189,16 +3174,16 @@
         <v>8</v>
       </c>
       <c r="F67" t="s">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="G67" t="s">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="H67" t="s">
-        <v>587</v>
+        <v>548</v>
       </c>
       <c r="P67" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
@@ -3216,40 +3201,40 @@
         <v>19</v>
       </c>
       <c r="F70" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="G70" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="H70" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E71" t="s">
         <v>61</v>
       </c>
       <c r="F71" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
     </row>
     <row r="72" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C72" t="s">
-        <v>467</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F73" t="s">
-        <v>415</v>
+        <v>377</v>
       </c>
       <c r="L73">
         <v>99999</v>
@@ -3257,7 +3242,7 @@
     </row>
     <row r="74" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -3265,68 +3250,68 @@
         <v>35</v>
       </c>
       <c r="E75" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="F75" t="s">
-        <v>534</v>
+        <v>495</v>
       </c>
       <c r="G75" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="H75" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
     </row>
     <row r="76" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E76" t="s">
-        <v>533</v>
+        <v>494</v>
       </c>
       <c r="F76" t="s">
-        <v>529</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C77" t="s">
-        <v>530</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F78" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="L78" s="24" t="s">
-        <v>536</v>
+        <v>497</v>
       </c>
     </row>
     <row r="79" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>441</v>
+        <v>403</v>
       </c>
       <c r="L79" s="24"/>
     </row>
     <row r="80" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F80" t="s">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="L80" s="24" t="s">
-        <v>535</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
@@ -3336,10 +3321,10 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C83" t="s">
-        <v>470</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
@@ -3349,13 +3334,13 @@
     </row>
     <row r="85" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="G85" t="s">
-        <v>471</v>
+        <v>432</v>
       </c>
       <c r="H85" t="s">
-        <v>472</v>
+        <v>433</v>
       </c>
     </row>
     <row r="86" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3363,16 +3348,16 @@
         <v>19</v>
       </c>
       <c r="F86" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="G86" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="H86" t="s">
-        <v>448</v>
+        <v>409</v>
       </c>
       <c r="P86" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
@@ -3380,43 +3365,43 @@
         <v>19</v>
       </c>
       <c r="F87" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="G87" t="s">
-        <v>449</v>
+        <v>410</v>
       </c>
       <c r="H87" t="s">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="P87" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
     </row>
     <row r="88" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E88" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="F88" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
     </row>
     <row r="89" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C89" t="s">
-        <v>473</v>
+        <v>434</v>
       </c>
     </row>
     <row r="90" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F90" t="s">
-        <v>406</v>
+        <v>368</v>
       </c>
       <c r="L90">
         <v>99</v>
@@ -3424,10 +3409,10 @@
     </row>
     <row r="91" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F91" t="s">
-        <v>407</v>
+        <v>369</v>
       </c>
       <c r="L91">
         <v>99</v>
@@ -3435,7 +3420,7 @@
     </row>
     <row r="92" spans="2:16" ht="16.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
@@ -3445,12 +3430,12 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
     </row>
     <row r="105" spans="13:13" x14ac:dyDescent="0.25">
@@ -6499,7 +6484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138BD5C9-A048-4A3C-8E58-D18F5ADE85B5}">
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
       <selection activeCell="A205" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -6522,7 +6507,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6537,7 +6522,7 @@
         <v>22</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6552,7 +6537,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6567,7 +6552,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6582,7 +6567,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6597,7 +6582,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6612,7 +6597,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6627,7 +6612,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6639,10 +6624,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>64</v>
+        <v>552</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>137</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6654,10 +6639,10 @@
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>554</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>138</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6669,10 +6654,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>139</v>
+        <v>556</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>159</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6684,10 +6669,10 @@
         <v>4</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>558</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>160</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6699,10 +6684,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -6713,10 +6698,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6724,13 +6709,13 @@
         <v>29</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>298</v>
+        <v>260</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>297</v>
+        <v>259</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>565</v>
+        <v>526</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6738,13 +6723,13 @@
         <v>29</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>264</v>
+        <v>226</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>566</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6755,10 +6740,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6769,10 +6754,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6780,13 +6765,13 @@
         <v>29</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6797,10 +6782,10 @@
         <v>33</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6812,10 +6797,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>71</v>
+        <v>560</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>71</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6827,10 +6812,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>72</v>
+        <v>561</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>72</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6842,10 +6827,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>73</v>
+        <v>562</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>73</v>
+        <v>562</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6857,10 +6842,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>74</v>
+        <v>563</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>74</v>
+        <v>563</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6872,10 +6857,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>164</v>
+        <v>564</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>164</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -6887,10 +6872,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>165</v>
+        <v>565</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>165</v>
+        <v>565</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6902,10 +6887,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>75</v>
+        <v>566</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>156</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6917,10 +6902,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>76</v>
+        <v>568</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>155</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6932,10 +6917,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>77</v>
+        <v>570</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>157</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6947,10 +6932,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>78</v>
+        <v>572</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>158</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6962,10 +6947,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>154</v>
+        <v>574</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>153</v>
+        <v>575</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6977,10 +6962,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>79</v>
+        <v>576</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>205</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6992,10 +6977,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>80</v>
+        <v>578</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>206</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -7007,10 +6992,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -7022,10 +7007,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>151</v>
+        <v>580</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>152</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -7037,10 +7022,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>82</v>
+        <v>552</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>150</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -7052,113 +7037,113 @@
         <v>3</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>62</v>
@@ -7167,546 +7152,546 @@
         <v>40</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>55</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>33</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>230</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>233</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>62</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B65" s="7" t="str">
         <f>"111111111"</f>
         <v>111111111</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B66" s="7" t="str">
         <f>"999999999"</f>
         <v>999999999</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>569</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>62</v>
@@ -7715,397 +7700,397 @@
         <v>40</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="B105" s="5" t="str">
         <f>"99999"</f>
         <v>99999</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B106" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B107" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B108" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B109" s="7" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B110" s="7" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B111" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B112" s="7" t="str">
         <f>"999"</f>
@@ -8115,12 +8100,12 @@
         <v>39</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B113" s="5" t="str">
         <f>"11"</f>
@@ -8137,7 +8122,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B114" s="5" t="str">
         <f>"12"</f>
@@ -8154,7 +8139,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B115" s="5" t="str">
         <f>"13"</f>
@@ -8171,7 +8156,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B116" s="5" t="str">
         <f>"14"</f>
@@ -8188,7 +8173,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B117" s="5" t="str">
         <f>"15"</f>
@@ -8205,7 +8190,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B118" s="5" t="str">
         <f>"16"</f>
@@ -8222,7 +8207,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B119" s="5" t="str">
         <f>"17"</f>
@@ -8239,7 +8224,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B120" s="5" t="str">
         <f>"18"</f>
@@ -8256,7 +8241,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B121" s="5" t="str">
         <f>"19"</f>
@@ -8273,7 +8258,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="B122" s="5" t="str">
         <f>"999"</f>
@@ -8283,12 +8268,12 @@
         <v>39</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B123" s="7" t="str">
         <f>"21"</f>
@@ -8305,7 +8290,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B124" s="7" t="str">
         <f>"22"</f>
@@ -8322,7 +8307,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B125" s="7" t="str">
         <f>"23"</f>
@@ -8339,7 +8324,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B126" s="7" t="str">
         <f t="shared" ref="B126:D127" si="0">"24"</f>
@@ -8356,7 +8341,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B127" s="7" t="str">
         <f t="shared" si="0"/>
@@ -8373,7 +8358,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B128" s="7" t="str">
         <f>"25"</f>
@@ -8390,7 +8375,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B129" s="7" t="str">
         <f>"26"</f>
@@ -8407,7 +8392,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B130" s="7" t="str">
         <f>"27"</f>
@@ -8424,7 +8409,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B131" s="7" t="str">
         <f>"28"</f>
@@ -8441,7 +8426,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
       <c r="B132" s="7" t="str">
         <f>"999"</f>
@@ -8451,12 +8436,12 @@
         <v>39</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="B133" s="5" t="str">
         <f>"31"</f>
@@ -8473,7 +8458,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="B134" s="5" t="str">
         <f>"32"</f>
@@ -8490,7 +8475,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="B135" s="5" t="str">
         <f>"33"</f>
@@ -8507,7 +8492,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="B136" s="5" t="str">
         <f>"34"</f>
@@ -8524,7 +8509,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="B137" s="5" t="str">
         <f>"35"</f>
@@ -8541,7 +8526,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="B138" s="5" t="str">
         <f>"999"</f>
@@ -8551,12 +8536,12 @@
         <v>39</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="B139" s="7" t="str">
         <f>"42"</f>
@@ -8573,7 +8558,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="B140" s="7" t="str">
         <f>"43"</f>
@@ -8590,7 +8575,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="B141" s="7" t="str">
         <f>"44"</f>
@@ -8607,7 +8592,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="B142" s="7" t="str">
         <f>"999"</f>
@@ -8617,12 +8602,12 @@
         <v>39</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B143" s="5" t="str">
         <f>"71"</f>
@@ -8639,7 +8624,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B144" s="5" t="str">
         <f>"72"</f>
@@ -8656,7 +8641,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B145" s="5" t="str">
         <f>"73"</f>
@@ -8673,7 +8658,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B146" s="5" t="str">
         <f>"74"</f>
@@ -8690,7 +8675,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B147" s="5" t="str">
         <f>"75"</f>
@@ -8707,7 +8692,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B148" s="5" t="str">
         <f>"76"</f>
@@ -8724,7 +8709,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B149" s="5" t="str">
         <f>"77"</f>
@@ -8741,7 +8726,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B150" s="5" t="str">
         <f>"78"</f>
@@ -8758,7 +8743,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B151" s="5" t="str">
         <f>"79"</f>
@@ -8775,7 +8760,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="B152" s="5" t="str">
         <f>"999"</f>
@@ -8785,12 +8770,12 @@
         <v>39</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="B153" s="7" t="str">
         <f>"92"</f>
@@ -8807,7 +8792,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="B154" s="7" t="str">
         <f>"93"</f>
@@ -8824,7 +8809,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="B155" s="7" t="str">
         <f>"94"</f>
@@ -8841,7 +8826,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="B156" s="7" t="str">
         <f>"999"</f>
@@ -8851,199 +8836,199 @@
         <v>39</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B157" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B158" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B159" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B160" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B161" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B162" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B163" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B164" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B165" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>252</v>
+        <v>214</v>
       </c>
       <c r="B166" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>262</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>299</v>
+        <v>261</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B169" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B169" s="8" t="s">
-        <v>301</v>
-      </c>
       <c r="C169" s="7" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>568</v>
+        <v>529</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -9058,612 +9043,612 @@
         <v>39</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="B171" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>570</v>
+        <v>531</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="B172" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>571</v>
+        <v>532</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="B173" s="7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>572</v>
+        <v>533</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B174" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B175" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B176" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B177" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B178" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B179" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B180" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B181" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B182" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="B183" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>371</v>
+        <v>333</v>
       </c>
       <c r="B184" s="7" t="str">
         <f>"9999"</f>
         <v>9999</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>573</v>
+        <v>534</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="B185" s="5" t="str">
         <f>"55"</f>
         <v>55</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="B186" s="5" t="str">
         <f>"51"</f>
         <v>51</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="B187" s="5" t="str">
         <f>"53"</f>
         <v>53</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
       <c r="B188" s="5" t="str">
         <f>"54"</f>
         <v>54</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>300</v>
+        <v>262</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>265</v>
+        <v>227</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>567</v>
+        <v>528</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>474</v>
+        <v>435</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>476</v>
+        <v>437</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>477</v>
+        <v>438</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>478</v>
+        <v>439</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>479</v>
+        <v>440</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>480</v>
+        <v>441</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>482</v>
+        <v>443</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>483</v>
+        <v>444</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>484</v>
+        <v>445</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>485</v>
+        <v>446</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>486</v>
+        <v>447</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>491</v>
+        <v>452</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>492</v>
+        <v>453</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>493</v>
+        <v>454</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>494</v>
+        <v>455</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>495</v>
+        <v>456</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>496</v>
+        <v>457</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>498</v>
+        <v>459</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>400</v>
+        <v>362</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>499</v>
+        <v>460</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="B204" s="7" t="str">
         <f>"999"</f>
         <v>999</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>578</v>
+        <v>539</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="B205" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>574</v>
+        <v>535</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="B206" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>383</v>
+        <v>345</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>575</v>
+        <v>536</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="B207" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>384</v>
+        <v>346</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>576</v>
+        <v>537</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>399</v>
+        <v>361</v>
       </c>
       <c r="B208" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>577</v>
+        <v>538</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="B209" s="7" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>417</v>
+        <v>379</v>
       </c>
       <c r="D209" s="7" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="B210" s="7" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>580</v>
+        <v>541</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="B211" s="7" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>419</v>
+        <v>381</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>581</v>
+        <v>542</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="B212" s="7" t="str">
         <f>"99"</f>
@@ -9673,124 +9658,124 @@
         <v>39</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>514</v>
+        <v>475</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>515</v>
+        <v>476</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>521</v>
+        <v>482</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>522</v>
+        <v>483</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>518</v>
+        <v>479</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>533</v>
+        <v>494</v>
       </c>
       <c r="B221" s="7" t="s">
         <v>61</v>
@@ -9799,41 +9784,41 @@
         <v>39</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="25" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>429</v>
+        <v>391</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>582</v>
+        <v>543</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="B223" s="7" t="str">
         <f>"88888"</f>
         <v>88888</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>418</v>
+        <v>380</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>580</v>
+        <v>541</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>511</v>
+        <v>472</v>
       </c>
       <c r="B224" s="7" t="str">
         <f>"99999"</f>
@@ -9843,217 +9828,217 @@
         <v>39</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B225" s="5" t="str">
         <f>"10"</f>
         <v>10</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>545</v>
+        <v>506</v>
       </c>
       <c r="D225" s="26" t="s">
-        <v>545</v>
+        <v>506</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B226" s="5" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>546</v>
+        <v>507</v>
       </c>
       <c r="D226" s="27" t="s">
-        <v>546</v>
+        <v>507</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B227" s="5" t="str">
         <f>"13"</f>
         <v>13</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>547</v>
+        <v>508</v>
       </c>
       <c r="D227" s="27" t="s">
-        <v>547</v>
+        <v>508</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B228" s="5" t="str">
         <f>"7"</f>
         <v>7</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>548</v>
+        <v>509</v>
       </c>
       <c r="D228" s="27" t="s">
-        <v>548</v>
+        <v>509</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B229" s="5" t="str">
         <f>"5"</f>
         <v>5</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>549</v>
+        <v>510</v>
       </c>
       <c r="D229" s="27" t="s">
-        <v>549</v>
+        <v>510</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B230" s="5" t="str">
         <f>"8"</f>
         <v>8</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
       <c r="D230" s="27" t="s">
-        <v>550</v>
+        <v>511</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B231" s="5" t="str">
         <f>"11"</f>
         <v>11</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>551</v>
+        <v>512</v>
       </c>
       <c r="D231" s="27" t="s">
-        <v>551</v>
+        <v>512</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B232" s="5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>552</v>
+        <v>513</v>
       </c>
       <c r="D232" s="27" t="s">
-        <v>552</v>
+        <v>513</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B233" s="5" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
       <c r="D233" s="27" t="s">
-        <v>553</v>
+        <v>514</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B234" s="5" t="str">
         <f>"6"</f>
         <v>6</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
       <c r="D234" s="27" t="s">
-        <v>554</v>
+        <v>515</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B235" s="5" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>555</v>
+        <v>516</v>
       </c>
       <c r="D235" s="27" t="s">
-        <v>555</v>
+        <v>516</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B236" s="5" t="str">
         <f>"14"</f>
         <v>14</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>556</v>
+        <v>517</v>
       </c>
       <c r="D236" s="27" t="s">
-        <v>556</v>
+        <v>517</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B237" s="5" t="str">
         <f>"12"</f>
         <v>12</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
       <c r="D237" s="27" t="s">
-        <v>557</v>
+        <v>518</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="B238" s="5" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
       <c r="D238" s="27" t="s">
-        <v>558</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -10085,7 +10070,7 @@
         <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -10093,10 +10078,10 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -10130,7 +10115,7 @@
         <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -10144,7 +10129,7 @@
         <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -10154,10 +10139,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49955335-AC2E-46D7-A127-46FEF28BC146}">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="A137" sqref="A1:C1048576"/>
+    <sheetView topLeftCell="A158" workbookViewId="0">
+      <selection activeCell="A158" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10176,7 +10161,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
@@ -10184,7 +10169,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>19</v>
@@ -10195,7 +10180,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>560</v>
+        <v>521</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>35</v>
@@ -10206,7 +10191,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>35</v>
@@ -10217,10 +10202,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="C5" s="10" t="b">
         <v>0</v>
@@ -10228,10 +10213,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="C6" s="10" t="b">
         <v>0</v>
@@ -10239,7 +10224,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>8</v>
@@ -10250,7 +10235,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>8</v>
@@ -10261,7 +10246,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>310</v>
+        <v>272</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -10272,7 +10257,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>19</v>
@@ -10283,7 +10268,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>404</v>
+        <v>366</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>19</v>
@@ -10294,7 +10279,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>8</v>
@@ -10305,7 +10290,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>311</v>
+        <v>273</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>9</v>
@@ -10316,7 +10301,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>9</v>
@@ -10327,7 +10312,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>9</v>
@@ -10338,7 +10323,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>35</v>
@@ -10349,7 +10334,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>35</v>
@@ -10360,10 +10345,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="C18" s="10" t="b">
         <v>0</v>
@@ -10371,7 +10356,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>35</v>
@@ -10382,10 +10367,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="C20" s="10" t="b">
         <v>0</v>
@@ -10393,7 +10378,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>19</v>
@@ -10404,7 +10389,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>508</v>
+        <v>469</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>8</v>
@@ -10415,7 +10400,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>509</v>
+        <v>470</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>8</v>
@@ -10426,7 +10411,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>8</v>
@@ -10437,7 +10422,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>561</v>
+        <v>522</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>35</v>
@@ -10448,7 +10433,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>19</v>
@@ -10459,7 +10444,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>20</v>
@@ -10470,7 +10455,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>9</v>
@@ -10481,7 +10466,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>19</v>
@@ -10492,7 +10477,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>8</v>
@@ -10503,10 +10488,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>325</v>
+        <v>551</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C31" s="10" t="b">
         <v>0</v>
@@ -10514,32 +10499,32 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>53</v>
+        <v>287</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C32" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>326</v>
+      <c r="A33" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C33" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>327</v>
+      <c r="A34" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C34" s="10" t="b">
         <v>0</v>
@@ -10547,10 +10532,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C35" s="10" t="b">
         <v>0</v>
@@ -10558,7 +10543,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>8</v>
@@ -10569,7 +10554,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>8</v>
@@ -10580,32 +10565,32 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>306</v>
+        <v>8</v>
       </c>
       <c r="C38" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>332</v>
+      <c r="A39" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="C39" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>333</v>
+      <c r="A40" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C40" s="10" t="b">
         <v>0</v>
@@ -10613,10 +10598,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C41" s="10" t="b">
         <v>0</v>
@@ -10624,21 +10609,21 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>374</v>
+        <v>214</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C42" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>334</v>
+      <c r="A43" s="10" t="s">
+        <v>336</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C43" s="10" t="b">
         <v>0</v>
@@ -10646,7 +10631,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>20</v>
@@ -10657,21 +10642,21 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>541</v>
+        <v>297</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>336</v>
+      <c r="A46" s="11" t="s">
+        <v>502</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C46" s="10" t="b">
         <v>0</v>
@@ -10679,10 +10664,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" s="10" t="b">
         <v>0</v>
@@ -10690,10 +10675,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="10" t="b">
         <v>0</v>
@@ -10701,10 +10686,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" s="10" t="b">
         <v>0</v>
@@ -10712,10 +10697,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C50" s="10" t="b">
         <v>0</v>
@@ -10723,7 +10708,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="B51" s="10" t="s">
         <v>19</v>
@@ -10734,7 +10719,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="B52" s="10" t="s">
         <v>19</v>
@@ -10745,10 +10730,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c r="C53" s="10" t="b">
         <v>0</v>
@@ -10756,32 +10741,32 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>9</v>
+        <v>268</v>
       </c>
       <c r="C54" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>344</v>
+      <c r="A55" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C55" s="10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>389</v>
+      <c r="A56" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C56" s="10" t="b">
         <v>0</v>
@@ -10789,7 +10774,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>402</v>
+        <v>351</v>
       </c>
       <c r="B57" s="10" t="s">
         <v>8</v>
@@ -10799,11 +10784,11 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="11" t="s">
-        <v>345</v>
+      <c r="A58" s="10" t="s">
+        <v>364</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C58" s="10" t="b">
         <v>0</v>
@@ -10811,7 +10796,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>20</v>
@@ -10822,7 +10807,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>20</v>
@@ -10833,7 +10818,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>20</v>
@@ -10844,7 +10829,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="B62" s="10" t="s">
         <v>20</v>
@@ -10855,7 +10840,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="B63" s="10" t="s">
         <v>20</v>
@@ -10866,7 +10851,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>20</v>
@@ -10877,7 +10862,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="B65" s="10" t="s">
         <v>20</v>
@@ -10887,8 +10872,8 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>353</v>
+      <c r="A66" s="11" t="s">
+        <v>314</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>20</v>
@@ -10898,8 +10883,8 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
-        <v>354</v>
+      <c r="A67" s="10" t="s">
+        <v>315</v>
       </c>
       <c r="B67" s="10" t="s">
         <v>20</v>
@@ -10910,7 +10895,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="B68" s="10" t="s">
         <v>20</v>
@@ -10921,7 +10906,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="B69" s="10" t="s">
         <v>20</v>
@@ -10931,19 +10916,19 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="13" t="b">
-        <v>1</v>
+      <c r="A70" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C70" s="10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>294</v>
+        <v>71</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>8</v>
@@ -10954,7 +10939,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>89</v>
+        <v>256</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>8</v>
@@ -10965,7 +10950,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>8</v>
@@ -10976,7 +10961,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>87</v>
+        <v>257</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>8</v>
@@ -10987,7 +10972,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>293</v>
+        <v>70</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>8</v>
@@ -10998,10 +10983,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="C76" s="13" t="b">
         <v>1</v>
@@ -11009,10 +10994,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C77" s="13" t="b">
         <v>1</v>
@@ -11020,10 +11005,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="C78" s="13" t="b">
         <v>1</v>
@@ -11031,7 +11016,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>35</v>
@@ -11042,10 +11027,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="C80" s="13" t="b">
         <v>1</v>
@@ -11053,21 +11038,21 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C81" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="14" t="s">
-        <v>269</v>
+      <c r="A82" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C82" s="13" t="b">
         <v>1</v>
@@ -11075,10 +11060,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C83" s="13" t="b">
         <v>1</v>
@@ -11086,10 +11071,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>273</v>
+        <v>87</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C84" s="13" t="b">
         <v>1</v>
@@ -11097,10 +11082,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C85" s="13" t="b">
         <v>1</v>
@@ -11108,10 +11093,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>277</v>
+        <v>88</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C86" s="13" t="b">
         <v>1</v>
@@ -11119,21 +11104,21 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C87" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>241</v>
+      <c r="A88" s="14" t="s">
+        <v>209</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="C88" s="13" t="b">
         <v>1</v>
@@ -11141,7 +11126,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>35</v>
@@ -11152,7 +11137,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>35</v>
@@ -11163,7 +11148,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>35</v>
@@ -11174,7 +11159,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>35</v>
@@ -11185,7 +11170,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>35</v>
@@ -11196,7 +11181,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>35</v>
@@ -11207,10 +11192,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
-        <v>288</v>
+        <v>211</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C95" s="13" t="b">
         <v>1</v>
@@ -11218,10 +11203,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="C96" s="13" t="b">
         <v>1</v>
@@ -11229,10 +11214,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C97" s="13" t="b">
         <v>1</v>
@@ -11240,10 +11225,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="C98" s="13" t="b">
         <v>1</v>
@@ -11251,10 +11236,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C99" s="13" t="b">
         <v>1</v>
@@ -11262,21 +11247,21 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="C100" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="14" t="s">
-        <v>92</v>
+      <c r="A101" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C101" s="13" t="b">
         <v>1</v>
@@ -11284,10 +11269,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="B102" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C102" s="13" t="b">
         <v>1</v>
@@ -11295,10 +11280,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>107</v>
+        <v>230</v>
       </c>
       <c r="B103" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C103" s="13" t="b">
         <v>1</v>
@@ -11306,10 +11291,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
-        <v>283</v>
+        <v>90</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C104" s="13" t="b">
         <v>1</v>
@@ -11317,10 +11302,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>98</v>
+        <v>245</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C105" s="13" t="b">
         <v>1</v>
@@ -11328,10 +11313,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C106" s="13" t="b">
         <v>1</v>
@@ -11339,10 +11324,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C107" s="13" t="b">
         <v>1</v>
@@ -11350,10 +11335,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C108" s="13" t="b">
         <v>1</v>
@@ -11361,10 +11346,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C109" s="13" t="b">
         <v>1</v>
@@ -11372,10 +11357,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
-        <v>279</v>
+        <v>83</v>
       </c>
       <c r="B110" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C110" s="13" t="b">
         <v>1</v>
@@ -11383,10 +11368,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
-        <v>101</v>
+        <v>241</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C111" s="13" t="b">
         <v>1</v>
@@ -11394,10 +11379,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>272</v>
+        <v>84</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C112" s="13" t="b">
         <v>1</v>
@@ -11405,10 +11390,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
-        <v>102</v>
+        <v>234</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C113" s="13" t="b">
         <v>1</v>
@@ -11416,10 +11401,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C114" s="13" t="b">
         <v>1</v>
@@ -11427,10 +11412,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C115" s="13" t="b">
         <v>1</v>
@@ -11438,10 +11423,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>280</v>
+        <v>86</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C116" s="13" t="b">
         <v>1</v>
@@ -11449,10 +11434,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C117" s="13" t="b">
         <v>1</v>
@@ -11460,10 +11445,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C118" s="13" t="b">
         <v>1</v>
@@ -11471,10 +11456,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C119" s="13" t="b">
         <v>1</v>
@@ -11482,10 +11467,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C120" s="13" t="b">
         <v>1</v>
@@ -11493,10 +11478,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>95</v>
+        <v>236</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C121" s="13" t="b">
         <v>1</v>
@@ -11504,10 +11489,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>278</v>
+        <v>78</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C122" s="13" t="b">
         <v>1</v>
@@ -11515,10 +11500,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C123" s="13" t="b">
         <v>1</v>
@@ -11526,10 +11511,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>281</v>
+        <v>89</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C124" s="13" t="b">
         <v>1</v>
@@ -11537,10 +11522,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>108</v>
+        <v>243</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C125" s="13" t="b">
         <v>1</v>
@@ -11548,32 +11533,32 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>282</v>
+        <v>91</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="C126" s="13" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127" s="12" t="b">
-        <v>0</v>
+      <c r="A127" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C127" s="13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="12" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" s="12" t="b">
         <v>0</v>
@@ -11581,7 +11566,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="B129" s="12" t="s">
         <v>8</v>
@@ -11592,7 +11577,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
-        <v>537</v>
+        <v>331</v>
       </c>
       <c r="B130" s="12" t="s">
         <v>8</v>
@@ -11602,22 +11587,22 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="C131" s="16" t="b">
-        <v>1</v>
+      <c r="A131" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="15" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C132" s="16" t="b">
         <v>1</v>
@@ -11625,54 +11610,54 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="15" t="s">
-        <v>538</v>
+        <v>335</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C133" s="16" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="B134" s="28" t="s">
+      <c r="A134" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C134" s="16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="B135" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="28" t="b">
+      <c r="C135" s="28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="29" t="s">
-        <v>562</v>
-      </c>
-      <c r="B135" s="29" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="29" t="s">
+        <v>523</v>
+      </c>
+      <c r="B136" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C135" s="29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="22" t="s">
-        <v>500</v>
-      </c>
-      <c r="B136" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C136" s="22" t="b">
+      <c r="C136" s="29" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="22" t="s">
-        <v>505</v>
+        <v>461</v>
       </c>
       <c r="B137" s="22" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C137" s="22" t="b">
         <v>0</v>
@@ -11680,7 +11665,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="22" t="s">
-        <v>503</v>
+        <v>466</v>
       </c>
       <c r="B138" s="22" t="s">
         <v>8</v>
@@ -11691,10 +11676,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="22" t="s">
-        <v>501</v>
+        <v>464</v>
       </c>
       <c r="B139" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C139" s="22" t="b">
         <v>0</v>
@@ -11702,7 +11687,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="s">
-        <v>376</v>
+        <v>462</v>
       </c>
       <c r="B140" s="22" t="s">
         <v>9</v>
@@ -11713,7 +11698,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="22" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="B141" s="22" t="s">
         <v>9</v>
@@ -11723,22 +11708,22 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="B142" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C142" s="23" t="b">
-        <v>1</v>
+      <c r="A142" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="B142" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="23" t="s">
-        <v>543</v>
+        <v>463</v>
       </c>
       <c r="B143" s="23" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="C143" s="23" t="b">
         <v>1</v>
@@ -11746,7 +11731,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
-        <v>542</v>
+        <v>504</v>
       </c>
       <c r="B144" s="23" t="s">
         <v>9</v>
@@ -11756,22 +11741,22 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="21" t="s">
-        <v>563</v>
-      </c>
-      <c r="B145" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" s="21" t="b">
-        <v>0</v>
+      <c r="A145" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" s="23" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="B146" s="21" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C146" s="21" t="b">
         <v>0</v>
@@ -11779,29 +11764,29 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="B147" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C147" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="17" t="s">
-        <v>540</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="17" t="b">
+      <c r="A148" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="21" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="s">
-        <v>395</v>
+        <v>501</v>
       </c>
       <c r="B149" s="17" t="s">
         <v>8</v>
@@ -11812,7 +11797,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="B150" s="17" t="s">
         <v>8</v>
@@ -11823,7 +11808,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="s">
-        <v>526</v>
+        <v>358</v>
       </c>
       <c r="B151" s="17" t="s">
         <v>8</v>
@@ -11834,10 +11819,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="17" t="s">
-        <v>406</v>
+        <v>487</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C152" s="17" t="b">
         <v>0</v>
@@ -11845,7 +11830,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="s">
-        <v>407</v>
+        <v>368</v>
       </c>
       <c r="B153" s="17" t="s">
         <v>19</v>
@@ -11856,7 +11841,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="17" t="s">
-        <v>408</v>
+        <v>369</v>
       </c>
       <c r="B154" s="17" t="s">
         <v>19</v>
@@ -11867,7 +11852,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
-        <v>409</v>
+        <v>370</v>
       </c>
       <c r="B155" s="17" t="s">
         <v>19</v>
@@ -11878,10 +11863,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
-        <v>410</v>
+        <v>371</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>306</v>
+        <v>19</v>
       </c>
       <c r="C156" s="17" t="b">
         <v>0</v>
@@ -11889,10 +11874,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="s">
-        <v>411</v>
+        <v>372</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>19</v>
+        <v>268</v>
       </c>
       <c r="C157" s="17" t="b">
         <v>0</v>
@@ -11900,7 +11885,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="17" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="B158" s="17" t="s">
         <v>19</v>
@@ -11911,7 +11896,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="B159" s="17" t="s">
         <v>19</v>
@@ -11922,10 +11907,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="17" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C160" s="17" t="b">
         <v>0</v>
@@ -11933,10 +11918,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C161" s="17" t="b">
         <v>0</v>
@@ -11944,10 +11929,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="17" t="s">
-        <v>414</v>
+        <v>349</v>
       </c>
       <c r="B162" s="17" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C162" s="17" t="b">
         <v>0</v>
@@ -11955,7 +11940,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="B163" s="17" t="s">
         <v>35</v>
@@ -11966,32 +11951,32 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="17" t="s">
-        <v>415</v>
+        <v>378</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C164" s="17" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="B165" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C165" s="18" t="b">
-        <v>1</v>
+      <c r="A165" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="B165" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="19" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="B166" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C166" s="18" t="b">
         <v>1</v>
@@ -11999,10 +11984,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="19" t="s">
-        <v>527</v>
+        <v>360</v>
       </c>
       <c r="B167" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C167" s="18" t="b">
         <v>1</v>
@@ -12010,21 +11995,21 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="19" t="s">
-        <v>423</v>
+        <v>488</v>
       </c>
       <c r="B168" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C168" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="18" t="s">
-        <v>519</v>
+      <c r="A169" s="19" t="s">
+        <v>385</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C169" s="18" t="b">
         <v>1</v>
@@ -12032,32 +12017,32 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="B170" s="18" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="C170" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="19" t="s">
-        <v>425</v>
+      <c r="A171" s="18" t="s">
+        <v>386</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C171" s="18" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="18" t="s">
-        <v>426</v>
+      <c r="A172" s="19" t="s">
+        <v>387</v>
       </c>
       <c r="B172" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C172" s="18" t="b">
         <v>1</v>
@@ -12065,10 +12050,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
-        <v>512</v>
+        <v>388</v>
       </c>
       <c r="B173" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C173" s="18" t="b">
         <v>1</v>
@@ -12076,10 +12061,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="18" t="s">
-        <v>388</v>
+        <v>473</v>
       </c>
       <c r="B174" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C174" s="18" t="b">
         <v>1</v>
@@ -12087,10 +12072,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C175" s="18" t="b">
         <v>1</v>
@@ -12098,10 +12083,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
-        <v>529</v>
+        <v>350</v>
       </c>
       <c r="B176" s="18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C176" s="18" t="b">
         <v>1</v>
@@ -12109,12 +12094,34 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
-        <v>427</v>
+        <v>495</v>
       </c>
       <c r="B177" s="18" t="s">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="C177" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="B178" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C178" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B179" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C179" s="18" t="b">
         <v>1</v>
       </c>
     </row>
